--- a/Dataset/Institutions (Mon May 16 2022).xlsx
+++ b/Dataset/Institutions (Mon May 16 2022).xlsx
@@ -10779,8 +10779,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="17.78"/>
-    <col customWidth="1" min="4" max="4" width="38.89"/>
+    <col customWidth="1" min="1" max="1" width="17.78"/>
+    <col customWidth="1" min="2" max="2" width="18.11"/>
+    <col customWidth="1" min="3" max="3" width="11.33"/>
+    <col customWidth="1" min="4" max="4" width="40.89"/>
     <col customWidth="1" min="5" max="9" width="17.78"/>
   </cols>
   <sheetData>
